--- a/airpods1.xlsx
+++ b/airpods1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/almei93428/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/almei93428/GoogleDrive/2 periodo/cien dados/Projeto1CD_AnaeLuana/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F7D21E-D930-A74C-B73F-ACEFF8692CD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D175713-5FF5-2A42-8333-2C6DBD68E9C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2071,7 +2071,7 @@
   <dimension ref="A1:F301"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="I2" sqref="I2:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
